--- a/trainingDataCalgaryCams.xlsx
+++ b/trainingDataCalgaryCams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Coding\CalgaryHacks-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47974E9-1510-450E-ACD7-7A70FC7635E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C844A3-8EF3-433F-A0AC-B219E2ACF8D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A45560BB-1716-4B74-902F-1C605C221C07}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
   <si>
     <t>http://trafficcam.calgary.ca/loc43.jpg</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Crash? (Y or N)</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -742,7 +745,7 @@
   <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -759,70 +762,112 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">

--- a/trainingDataCalgaryCams.xlsx
+++ b/trainingDataCalgaryCams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Coding\CalgaryHacks-2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\OneDrive\Documents\GitHub\CalgaryHacks-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47974E9-1510-450E-ACD7-7A70FC7635E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D47974E9-1510-450E-ACD7-7A70FC7635E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7DDEC329-1DC7-4F55-BF29-CB41773AB0A6}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A45560BB-1716-4B74-902F-1C605C221C07}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A45560BB-1716-4B74-902F-1C605C221C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -394,10 +393,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -420,13 +427,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -742,12 +752,12 @@
   <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -755,592 +765,595 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{46BA9D42-051D-4BAE-858B-67A60A2F976D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>